--- a/Scripts_run/Manual_Monitoring/Reports/Manual_Monitoring_Report.xlsx
+++ b/Scripts_run/Manual_Monitoring/Reports/Manual_Monitoring_Report.xlsx
@@ -1945,19 +1945,19 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44728</v>
+        <v>112895</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -1978,19 +1978,19 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>350</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>177324</v>
+        <v>91758</v>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>10015</v>
+        <v>160024</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>775</v>
+        <v>408</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>775</v>
+        <v>408</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>106360</v>
+        <v>21243</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -2261,10 +2261,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>109125</v>
+        <v>9585</v>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
